--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -619,14 +619,14 @@
         <is>
           <t xml:space="preserve">               AP        AS        AL        AU        BB        AG        BC  \
 Cluster                                                                         
-0        1.500000  0.116466  1.500000  0.220884  0.094378  1.500000  0.110442   
-1        0.084729  1.500000  0.149754  1.500000  0.177340  0.248768  0.205911   
-2        0.408284  1.171598  0.473373  1.195266  1.500000  0.508876  1.500000   
+0        0.408284  1.171598  0.473373  1.195266  1.500000  0.508876  1.500000   
+1        1.500000  0.116466  1.500000  0.220884  0.094378  1.500000  0.110442   
+2        0.084729  1.500000  0.149754  1.500000  0.177340  0.248768  0.205911   
                BJ        BA        AH  
 Cluster                                
-0        0.279116  0.289157  1.500000  
-1        0.211330  0.296552  0.403941  
-2        1.500000  1.500000  0.603550  </t>
+0        1.500000  1.500000  0.603550  
+1        0.279116  0.289157  1.500000  
+2        0.211330  0.296552  0.403941  </t>
         </is>
       </c>
     </row>
@@ -689,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-46283.70151058379</v>
+        <v>-40021.3375815621</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3649849532284223</v>
+        <v>0.580522821727445</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -703,16 +703,16 @@
         <is>
           <t xml:space="preserve">               AP        AS        AL        BB        BC        AU        AG  \
 Cluster                                                                         
-0        0.081081  1.500000  0.119932  0.221284  0.234797  1.500000  0.842905   
-1        1.500000  0.106272  1.500000  0.280488  0.294425  0.210801  1.500000   
-2        0.085674  1.500000  0.162219  0.150983  0.186096  1.500000  0.000000   
-3        0.094203  1.500000  0.173913  1.474638  1.474638  1.500000  0.231884   
+0        0.084325  1.500000  0.149802  0.171627  0.200397  1.500000  0.247520   
+1        1.500000  0.116466  1.500000  0.094378  0.110442  0.220884  1.500000   
+2        0.094203  1.500000  0.173913  1.474638  1.474638  1.500000  0.231884   
+3        1.500000  0.039474  1.500000  1.500000  1.500000  0.144737  1.500000   
                BJ        BA        AH  
 Cluster                                
-0        0.236486  0.297297  0.706081  
-1        0.440767  0.449477  1.500000  
-2        0.198034  0.289326  0.278090  
-3        1.449275  1.474638  0.347826  </t>
+0        0.209325  0.291667  0.403770  
+1        0.279116  0.289157  1.500000  
+2        1.449275  1.474638  0.347826  
+3        1.500000  1.500000  1.500000  </t>
         </is>
       </c>
     </row>
@@ -777,32 +777,32 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-54601.16005612485</v>
+        <v>-53398.04699930129</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3209633839133723</v>
+        <v>0.3376027615405992</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Index(['AP', 'AS', 'AL', 'BB', 'BC', 'AU', 'AG', 'BJ', 'BA', 'BF'], dtype='object')</t>
+          <t>Index(['AS', 'AP', 'BB', 'BC', 'AL', 'AU', 'BJ', 'AG', 'BA', 'BF'], dtype='object')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AP        AS        AL        BB        BC        AU        AG  \
+          <t xml:space="preserve">               AS        AP        BB        BC        AL        AU        BJ  \
 Cluster                                                                         
-0        0.148276  1.500000  0.164655  0.263793  0.360345  1.500000  0.254310   
-1        1.500000  0.116466  1.500000  0.094378  0.110442  0.220884  1.500000   
-2        0.000000  1.500000  0.129885  0.062069  0.000000  1.500000  0.241379   
-3        0.091603  1.500000  0.175573  1.500000  1.500000  1.500000  0.221374   
-4        1.500000  0.039474  1.500000  1.500000  1.500000  0.144737  1.500000   
-               BJ        BA        BF  
+0        1.500000  0.000000  0.062500  0.000000  0.132601  1.500000  0.171453   
+1        0.039474  1.500000  1.500000  1.500000  1.500000  0.144737  1.500000   
+2        0.116466  1.500000  0.094378  0.110442  1.500000  0.220884  0.279116   
+3        1.500000  0.091603  1.500000  1.500000  0.175573  1.500000  1.500000   
+4        1.500000  0.203310  0.338061  0.494090  0.173759  1.500000  0.267139   
+               AG        BA        BF  
 Cluster                                
-0        0.250000  0.518966  0.299138  
-1        0.279116  0.289157  0.309237  
-2        0.159770  0.000000  0.319540  
-3        1.500000  1.500000  1.500000  
-4        1.500000  1.500000  1.500000  </t>
+0        0.237331  0.174831  0.317568  
+1        1.500000  1.500000  1.500000  
+2        1.500000  0.289157  0.309237  
+3        0.221374  1.500000  1.500000  
+4        0.264775  0.466903  0.294326  </t>
         </is>
       </c>
     </row>
@@ -869,34 +869,34 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>-59222.16861448799</v>
+        <v>-61389.80215613113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3893337320366747</v>
+        <v>0.3259479834070631</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Index(['AP', 'AS', 'AL', 'BB', 'BC', 'AU', 'BJ', 'BA', 'AG', 'BF'], dtype='object')</t>
+          <t>Index(['AS', 'AP', 'BB', 'AL', 'BC', 'AU', 'BJ', 'BA', 'AG', 'BF'], dtype='object')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AP        AS        AL        BB        BC        AU        BJ  \
+          <t xml:space="preserve">               AS        AP        BB        AL        BC        AU        BJ  \
 Cluster                                                                         
-0        1.500000  0.116466  1.500000  0.094378  0.110442  0.220884  0.279116   
-1        0.000000  1.500000  0.144495  0.152905  0.191131  1.500000  0.177370   
-2        0.091603  1.500000  0.175573  1.500000  1.500000  1.500000  1.500000   
-3        0.000000  1.500000  0.114545  0.225455  0.238182  1.500000  0.221818   
-4        1.000000  1.500000  0.302326  0.209302  0.215116  1.500000  0.436047   
-5        1.500000  0.039474  1.500000  1.500000  1.500000  0.144737  1.500000   
+0        1.500000  1.000000  0.209302  0.302326  0.215116  1.500000  0.436047   
+1        1.500000  0.091603  1.500000  0.175573  1.500000  1.500000  1.500000   
+2        0.106272  1.500000  0.280488  1.500000  0.294425  0.210801  0.440767   
+3        1.500000  0.000000  0.345982  0.160714  0.558036  1.500000  0.212054   
+4        1.500000  0.000000  0.225455  0.114545  0.238182  1.500000  0.221818   
+5        1.500000  0.000000  0.052326  0.136047  0.000000  1.500000  0.159302   
                BA        AG        BF  
 Cluster                                
-0        0.289157  1.500000  0.309237  
-1        0.288226  0.000000  0.301988  
-2        1.500000  0.221374  1.500000  
-3        0.294545  0.836364  0.305455  
-4        0.366279  0.261628  0.360465  
-5        1.500000  1.500000  1.500000  </t>
+0        0.366279  0.261628  0.360465  
+1        1.500000  0.221374  1.500000  
+2        0.449477  1.500000  0.466899  
+3        0.493304  0.000000  0.283482  
+4        0.294545  0.836364  0.305455  
+5        0.181395  0.000000  0.311628  </t>
         </is>
       </c>
     </row>
@@ -965,36 +965,36 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>-57344.87732913315</v>
+        <v>-69381.77958945929</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3100435121757567</v>
+        <v>0.3518179691357992</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Index(['AS', 'AP', 'AL', 'AU', 'BB', 'AG', 'BC', 'AH', 'BJ', 'BA'], dtype='object')</t>
+          <t>Index(['AS', 'AP', 'AL', 'AU', 'AG', 'BB', 'BC', 'BJ', 'AV', 'BA'], dtype='object')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AS        AP        AL        AU        BB        AG        BC  \
+          <t xml:space="preserve">               AS        AP        AL        AU        AG        BB        BC  \
 Cluster                                                                         
-0        1.500000  0.206186  0.123711  1.500000  0.314433  1.000000  0.335052   
-1        0.116466  1.500000  1.500000  0.220884  0.094378  1.500000  0.110442   
-2        1.500000  0.091603  0.175573  1.500000  1.500000  0.221374  1.500000   
-3        1.500000  0.000000  0.110656  1.500000  0.075820  0.267418  0.070697   
+0        1.500000  0.000000  0.000000  1.500000  0.061483  0.163653  0.198915   
+1        0.116466  1.500000  1.500000  0.220884  1.500000  0.094378  0.110442   
+2        1.500000  0.091603  0.175573  1.500000  0.221374  1.500000  1.500000   
+3        1.500000  0.000000  0.557592  1.500000  0.057592  0.188482  0.227749   
 4        0.039474  1.500000  1.500000  0.144737  1.500000  1.500000  1.500000   
-5        1.500000  0.122642  0.167453  1.500000  0.294811  0.117925  0.417453   
-6        1.500000  0.183486  0.231651  1.500000  0.229358  0.000000  0.245413   
-               AH        BJ        BA  
+5        1.500000  0.097561  0.114634  1.500000  1.000000  0.204878  0.212195   
+6        1.500000  1.000000  0.333333  1.500000  0.037879  0.174242  0.181818   
+               BJ        AV        BA  
 Cluster                                
-0        0.773196  0.288660  0.618557  
-1        1.500000  0.279116  0.289157  
-2        0.343511  1.500000  1.500000  
-3        0.386270  0.158811  0.000000  
-4        1.500000  1.500000  1.500000  
-5        0.691038  0.250000  0.599057  
-6        0.000000  0.256881  0.522936  </t>
+0        0.158228  1.500000  0.283906  
+1        0.279116  0.393445  0.289157  
+2        1.500000  1.500000  1.500000  
+3        0.235602  1.500000  0.319372  
+4        1.500000  0.430324  1.500000  
+5        0.258537  1.500000  0.292683  
+6        0.439394  1.500000  0.348485  </t>
         </is>
       </c>
     </row>
@@ -1365,28 +1365,28 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-34231.83522256589</v>
+        <v>-38392.81247140104</v>
       </c>
       <c r="E18" t="n">
-        <v>0.567538234147651</v>
+        <v>0.6014106075799025</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Index(['AP', 'AS', 'AL', 'AU', 'BB', 'AG', 'BC', 'BJ', 'BA', 'AH'], dtype='object')</t>
+          <t>Index(['AS', 'AP', 'AL', 'AU', 'BB', 'BC', 'AG', 'BJ', 'BA', 'BF'], dtype='object')</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AP        AS        AL        AU        BB        AG        BC  \
+          <t xml:space="preserve">               AS        AP        AL        AU        BB        BC        AG  \
 Cluster                                                                         
-0        0.084716  1.500000  0.152838  1.500000  0.327511  0.244978  0.352838   
-1        1.487179  0.076923  1.461538  0.179487  1.500000  1.487179  1.500000   
-2        1.500000  0.116466  1.500000  0.220884  0.094378  1.500000  0.110442   
-               BJ        BA        AH  
+0        1.500000  0.091603  0.175573  1.500000  1.500000  1.500000  0.221374   
+1        0.106272  1.500000  1.500000  0.210801  0.280488  0.294425  1.500000   
+2        1.500000  0.084729  0.149754  1.500000  0.177340  0.205911  0.248768   
+               BJ        BA        BF  
 Cluster                                
-0        0.357642  0.433188  0.396507  
-1        1.500000  1.500000  1.487179  
-2        0.279116  0.289157  1.500000  </t>
+0        1.500000  1.500000  1.500000  
+1        0.440767  0.449477  0.466899  
+2        0.211330  0.296552  0.307882  </t>
         </is>
       </c>
     </row>
@@ -1449,30 +1449,30 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-40556.77168561129</v>
+        <v>-44642.97972501754</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6254193484241747</v>
+        <v>0.348114465731409</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Index(['AS', 'AP', 'BB', 'BC', 'AL', 'AU', 'AG', 'BJ', 'BA', 'BF'], dtype='object')</t>
+          <t>Index(['AP', 'AS', 'AL', 'BB', 'AU', 'BC', 'AG', 'BJ', 'BA', 'BF'], dtype='object')</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AS        AP        BB        BC        AL        AU        AG  \
+          <t xml:space="preserve">               AP        AS        AL        BB        AU        BC        AG  \
 Cluster                                                                         
-0        1.500000  0.084729  0.177340  0.205911  0.149754  1.500000  0.248768   
-1        0.116466  1.500000  0.094378  0.110442  1.500000  0.220884  1.500000   
-2        1.500000  0.091603  1.500000  1.500000  0.175573  1.500000  0.221374   
-3        0.039474  1.500000  1.500000  1.500000  1.500000  0.144737  1.500000   
+0        0.083333  1.500000  0.121667  0.231667  1.500000  0.245000  0.841667   
+1        1.500000  0.116466  1.500000  0.094378  0.220884  0.110442  1.500000   
+2        0.408284  1.171598  0.473373  1.500000  1.195266  1.500000  0.508876   
+3        0.085315  1.500000  0.161538  0.154545  1.500000  0.189510  0.000000   
                BJ        BA        BF  
 Cluster                                
-0        0.211330  0.296552  0.307882  
+0        0.240000  0.306667  0.308333  
 1        0.279116  0.289157  0.309237  
 2        1.500000  1.500000  1.500000  
-3        1.500000  1.500000  1.500000  </t>
+3        0.199301  0.292308  0.307692  </t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>-53398.04699930127</v>
+        <v>-81567.49430620996</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3376027615405992</v>
+        <v>0.347864837944436</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Index(['AS', 'AP', 'BB', 'AL', 'BC', 'AU', 'BJ', 'AG', 'BA', 'BF'], dtype='object')</t>
+          <t>Index(['AS', 'AP', 'AL', 'AU', 'AG', 'AV', 'AH', 'AK', 'AM', 'AJ'], dtype='object')</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AS        AP        BB        AL        BC        AU        BJ  \
-Cluster                                                                         
-0        1.500000  0.000000  0.062500  0.132601  0.000000  1.500000  0.171453   
-1        0.116466  1.500000  0.094378  1.500000  0.110442  0.220884  0.279116   
-2        1.500000  0.091603  1.500000  0.175573  1.500000  1.500000  1.500000   
-3        0.039474  1.500000  1.500000  1.500000  1.500000  0.144737  1.500000   
-4        1.500000  0.203310  0.338061  0.173759  0.494090  1.500000  0.267139   
-               AG        BA        BF  
+          <t xml:space="preserve">               AS   AP        AL        AU        AG        AV        AH  \
+Cluster                                                                    
+0        1.500000  1.0  0.352113  1.500000  0.000000  1.500000  0.267606   
+1        0.106272  1.5  1.500000  0.210801  1.500000  0.398328  1.500000   
+2        1.500000  0.0  0.148248  1.500000  0.000000  1.500000  0.272911   
+3        1.500000  0.0  0.000000  1.500000  0.851852  1.500000  0.695473   
+4        1.500000  0.3  0.444444  1.500000  0.827778  1.500000  0.716667   
+               AK        AM        AJ  
 Cluster                                
-0        0.237331  0.174831  0.317568  
-1        1.500000  0.289157  0.309237  
-2        0.221374  1.500000  1.500000  
-3        1.500000  1.500000  1.500000  
-4        0.264775  0.466903  0.294326  </t>
+0        0.718310  0.253521  0.612676  
+1        1.500000  1.500000  1.500000  
+2        0.420485  0.417790  0.465633  
+3        0.189300  0.609053  0.279835  
+4        0.616667  0.427778  0.494444  </t>
         </is>
       </c>
     </row>
@@ -1629,34 +1629,34 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>-56449.26256175469</v>
+        <v>-52861.36186673799</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3933593293064334</v>
+        <v>0.348152010178339</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Index(['AS', 'AP', 'BB', 'AL', 'BC', 'AU', 'BJ', 'AG', 'BA', 'BF'], dtype='object')</t>
+          <t>Index(['AP', 'AS', 'AL', 'BB', 'BC', 'AU', 'BJ', 'AG', 'BA', 'BF'], dtype='object')</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AS        AP        BB        AL        BC        AU        BJ  \
+          <t xml:space="preserve">               AP        AS        AL        BB        BC        AU        BJ  \
 Cluster                                                                         
-0        1.500000  0.083333  0.231667  0.121667  0.245000  1.500000  0.240000   
-1        0.039474  1.500000  1.500000  1.500000  1.500000  0.144737  1.500000   
-2        0.116466  1.500000  0.094378  1.500000  0.110442  0.220884  0.279116   
-3        1.500000  0.000000  0.152905  0.144495  0.191131  1.500000  0.177370   
-4        1.500000  0.091603  1.500000  0.175573  1.500000  1.500000  1.500000   
-5        1.500000  1.000000  0.172131  0.344262  0.172131  1.500000  0.434426   
+0        0.091603  1.500000  0.175573  1.500000  1.500000  1.500000  1.500000   
+1        0.088795  1.500000  0.152220  0.054968  0.000000  1.500000  0.183932   
+2        1.500000  0.116466  1.500000  0.094378  0.110442  0.220884  0.279116   
+3        1.500000  0.039474  1.500000  1.500000  1.500000  0.144737  1.500000   
+4        0.071217  1.500000  0.167656  0.332344  0.491098  1.500000  0.221068   
+5        0.097561  1.500000  0.114634  0.204878  0.212195  1.500000  0.258537   
                AG        BA        BF  
 Cluster                                
-0        0.841667  0.306667  0.308333  
-1        1.500000  1.500000  1.500000  
+0        0.221374  1.500000  1.500000  
+1        0.000000  0.183932  0.315011  
 2        1.500000  0.289157  0.309237  
-3        0.000000  0.288226  0.301988  
-4        0.221374  1.500000  1.500000  
-5        0.000000  0.336066  0.368852  </t>
+3        1.500000  1.500000  1.500000  
+4        0.140950  0.456973  0.292285  
+5        1.000000  0.292683  0.317073  </t>
         </is>
       </c>
     </row>
@@ -1725,38 +1725,36 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>-55639.833172315</v>
+        <v>-89400.32213871522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3307228997782429</v>
+        <v>0.2913857566727782</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Index(['AP', 'AS', 'AL', 'BB', 'BC', 'AU', 'BJ', 'BA', 'AG',
-       'CF_United States of America'],
-      dtype='object')</t>
+          <t>Index(['AS', 'AP', 'AL', 'AU', 'AG', 'AV', 'AK', 'AH', 'AM', 'AJ'], dtype='object')</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">               AP        AS        AL        BB        BC        AU        BJ  \
-Cluster                                                                         
-0        0.158974  1.500000  0.184615  0.000000  0.189744  1.500000  0.243590   
-1        0.091603  1.500000  0.175573  1.500000  1.500000  1.500000  1.500000   
-2        1.500000  0.116466  1.500000  0.094378  0.110442  0.220884  0.279116   
-3        0.096257  1.500000  0.163102  0.550802  0.529412  1.500000  0.240642   
-4        0.097625  1.500000  0.142480  0.130607  0.134565  1.500000  0.211082   
-5        1.500000  0.039474  1.500000  1.500000  1.500000  0.144737  1.500000   
-6        0.000000  1.500000  0.124016  0.108268  0.086614  1.500000  0.165354   
-               BA        AG  CF_United States of America  
-Cluster                                                   
-0        0.592308  0.210256                     1.000000  
-1        1.500000  0.221374                     0.557252  
-2        0.289157  1.500000                     0.473896  
-3        0.639037  0.275401                     1.000000  
-4        0.174142  0.265172                     0.000000  
-5        1.500000  1.500000                     0.342105  
-6        0.000000  0.234252                     1.000000  </t>
+          <t xml:space="preserve">               AS   AP        AL        AU        AG        AV        AK  \
+Cluster                                                                    
+0        1.500000  0.0  0.000000  1.500000  0.000000  1.500000  0.324497   
+1        0.084211  1.5  1.500000  0.150000  1.500000  0.000000  1.500000   
+2        1.500000  1.0  0.311224  1.500000  0.244898  1.500000  0.673469   
+3        1.500000  0.0  0.000000  1.500000  0.851852  1.500000  0.189300   
+4        0.149485  1.5  1.500000  0.329897  1.500000  1.178559  1.500000   
+5        1.500000  0.0  0.547619  1.500000  0.801587  1.500000  0.642857   
+6        1.500000  0.0  0.564103  1.500000  0.000000  1.500000  0.689744   
+               AH        AM        AJ  
+Cluster                                
+0        0.273309  0.466179  0.417733  
+1        1.500000  1.500000  1.500000  
+2        0.387755  0.352041  0.576531  
+3        0.695473  0.609053  0.279835  
+4        1.500000  1.500000  1.500000  
+5        0.722222  0.349206  0.500000  
+6        0.271795  0.282051  0.600000  </t>
         </is>
       </c>
     </row>
